--- a/data/outputs/OR_altmetric/24.xlsx
+++ b/data/outputs/OR_altmetric/24.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE128"/>
+  <dimension ref="A1:CF128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1021,6 +1026,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1270,6 +1278,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1519,6 +1530,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1770,6 +1784,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2019,6 +2036,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2278,6 +2298,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2529,6 +2552,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2778,6 +2804,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3031,6 +3060,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3280,6 +3312,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3541,6 +3576,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3802,6 +3840,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4063,6 +4104,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4316,6 +4360,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4565,6 +4612,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4826,6 +4876,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5087,6 +5140,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5348,6 +5404,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5609,6 +5668,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5860,6 +5922,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6113,6 +6178,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6368,6 +6436,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6621,6 +6692,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6870,6 +6944,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7127,6 +7204,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7380,6 +7460,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7637,6 +7720,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7884,6 +7970,9 @@
         <v>0</v>
       </c>
       <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8127,6 +8216,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8376,6 +8468,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8619,6 +8714,9 @@
         <v>0</v>
       </c>
       <c r="CE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8862,6 +8960,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9119,6 +9220,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9376,6 +9480,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9625,6 +9732,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9876,6 +9986,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10123,6 +10236,9 @@
         <v>0</v>
       </c>
       <c r="CE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10366,6 +10482,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10619,6 +10738,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10868,6 +10990,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11119,6 +11244,9 @@
         <v>0</v>
       </c>
       <c r="CE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11358,6 +11486,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11615,6 +11746,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11876,6 +12010,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12129,6 +12266,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12382,6 +12522,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12635,6 +12778,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12888,6 +13034,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13143,6 +13292,9 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13386,6 +13538,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13643,6 +13798,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13896,6 +14054,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14149,6 +14310,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14410,6 +14574,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14669,6 +14836,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14930,6 +15100,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15191,6 +15364,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15442,6 +15618,9 @@
         <v>0</v>
       </c>
       <c r="CE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15685,6 +15864,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15936,6 +16118,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16183,6 +16368,9 @@
         <v>0</v>
       </c>
       <c r="CE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16426,6 +16614,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16683,6 +16874,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16944,6 +17138,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17193,6 +17390,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17448,6 +17648,9 @@
         <v>0</v>
       </c>
       <c r="CE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17693,6 +17896,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17948,6 +18154,9 @@
         <v>0</v>
       </c>
       <c r="CE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18191,6 +18400,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18432,6 +18644,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18679,6 +18894,9 @@
         <v>0</v>
       </c>
       <c r="CE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18922,6 +19140,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19171,6 +19392,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19418,6 +19642,9 @@
         <v>0</v>
       </c>
       <c r="CE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19661,6 +19888,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19918,6 +20148,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -20167,6 +20400,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20422,6 +20658,9 @@
         <v>0</v>
       </c>
       <c r="CE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20665,6 +20904,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20912,6 +21154,9 @@
         <v>0</v>
       </c>
       <c r="CE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21155,6 +21400,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21404,6 +21652,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21649,6 +21900,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21898,6 +22152,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -22155,6 +22412,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22414,6 +22674,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22667,6 +22930,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22922,6 +23188,9 @@
         <v>0</v>
       </c>
       <c r="CE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23167,6 +23436,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23424,6 +23696,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23673,6 +23948,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23922,6 +24200,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -24179,6 +24460,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24428,6 +24712,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24679,6 +24966,9 @@
         <v>0</v>
       </c>
       <c r="CE96" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24922,6 +25212,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -25171,6 +25464,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25424,6 +25720,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25671,6 +25970,9 @@
         <v>0</v>
       </c>
       <c r="CE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25910,6 +26212,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -26167,6 +26472,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26424,6 +26732,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26681,6 +26992,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26930,6 +27244,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -27187,6 +27504,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -27436,6 +27756,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27685,6 +28008,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27938,6 +28264,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -28191,6 +28520,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -28440,6 +28772,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -28689,6 +29024,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28946,6 +29284,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -29199,6 +29540,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29448,6 +29792,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -29697,6 +30044,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29954,6 +30304,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -30203,6 +30556,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -30452,6 +30808,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -30709,6 +31068,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30968,6 +31330,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -31221,6 +31586,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -31470,6 +31838,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -31727,6 +32098,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -31976,6 +32350,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -32235,6 +32612,9 @@
       <c r="CE126" t="n">
         <v>0</v>
       </c>
+      <c r="CF126" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -32484,6 +32864,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -32741,6 +33124,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
